--- a/ExampleDB.xlsx
+++ b/ExampleDB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justi\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B0D232-BB42-4AE7-B272-9AACF2E93436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F1D6F80-0359-41CD-8938-9EA0E67F3807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="870" windowWidth="21600" windowHeight="11385" xr2:uid="{7F844D64-0EBC-4B07-94A7-9CB3277F976F}"/>
+    <workbookView xWindow="7050" yWindow="1590" windowWidth="21600" windowHeight="11385" xr2:uid="{7F844D64-0EBC-4B07-94A7-9CB3277F976F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="21">
   <si>
     <t>model</t>
   </si>
@@ -52,18 +52,9 @@
     <t>Tesla</t>
   </si>
   <si>
-    <t>Ioniq Electric</t>
-  </si>
-  <si>
     <t>Model 3 Standard Range Plus RWD</t>
   </si>
   <si>
-    <t>Scion</t>
-  </si>
-  <si>
-    <t>iQ EV</t>
-  </si>
-  <si>
     <t>Santa Fe</t>
   </si>
   <si>
@@ -98,6 +89,15 @@
   </si>
   <si>
     <t>Urus</t>
+  </si>
+  <si>
+    <t>jayzell</t>
+  </si>
+  <si>
+    <t>Pontiac</t>
+  </si>
+  <si>
+    <t>Safari Wagon</t>
   </si>
 </sst>
 </file>
@@ -450,20 +450,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{607A2095-877E-4954-B6EA-1D84033A66E1}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -475,161 +476,140 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="E2" s="1">
-        <v>44707</v>
+        <v>44709</v>
       </c>
       <c r="F2">
-        <v>32174</v>
+        <v>31543</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D3">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="E3" s="1">
-        <v>44708</v>
+        <v>44702</v>
       </c>
       <c r="F3">
-        <v>376421</v>
+        <v>4132</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4">
         <v>2021</v>
       </c>
       <c r="E4" s="1">
-        <v>44709</v>
+        <v>44703</v>
       </c>
       <c r="F4">
-        <v>31543</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
       <c r="D5">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="E5" s="1">
-        <v>44706</v>
+        <v>44704</v>
       </c>
       <c r="F5">
-        <v>53216</v>
+        <v>26143</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
       <c r="D6">
-        <v>2015</v>
+        <v>2021</v>
       </c>
       <c r="E6" s="1">
-        <v>44707</v>
+        <v>44705</v>
       </c>
       <c r="F6">
-        <v>4321</v>
+        <v>43215</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D7">
-        <v>2013</v>
+        <v>2021</v>
       </c>
       <c r="E7" s="1">
-        <v>44708</v>
+        <v>44706</v>
       </c>
       <c r="F7">
-        <v>64231</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D8">
-        <v>2013</v>
+        <v>2021</v>
       </c>
       <c r="E8" s="1">
-        <v>44709</v>
+        <v>44707</v>
       </c>
       <c r="F8">
-        <v>12356</v>
+        <v>23152</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D9">
         <v>2021</v>
@@ -638,18 +618,15 @@
         <v>44708</v>
       </c>
       <c r="F9">
-        <v>234165</v>
+        <v>53213</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D10">
         <v>2021</v>
@@ -658,32 +635,746 @@
         <v>44709</v>
       </c>
       <c r="F10">
-        <v>53216</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>2021</v>
+      </c>
+      <c r="E11" s="1">
+        <v>44710</v>
+      </c>
+      <c r="F11">
+        <v>32156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>2021</v>
+      </c>
+      <c r="E12" s="1">
+        <v>44711</v>
+      </c>
+      <c r="F12">
+        <v>32152</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13">
+        <v>2013</v>
+      </c>
+      <c r="E13" s="1">
+        <v>44709</v>
+      </c>
+      <c r="F13">
+        <v>12356</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14">
+        <v>2013</v>
+      </c>
+      <c r="E14" s="1">
+        <v>44710</v>
+      </c>
+      <c r="F14">
+        <v>231467</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <v>2013</v>
+      </c>
+      <c r="E15" s="1">
+        <v>44711</v>
+      </c>
+      <c r="F15">
+        <v>12341</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16">
+        <v>2021</v>
+      </c>
+      <c r="E16" s="1">
+        <v>44699</v>
+      </c>
+      <c r="F16">
+        <v>234165</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17">
+        <v>2021</v>
+      </c>
+      <c r="E17" s="1">
+        <v>44700</v>
+      </c>
+      <c r="F17">
+        <v>53216</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18">
+        <v>2021</v>
+      </c>
+      <c r="E18" s="1">
+        <v>44701</v>
+      </c>
+      <c r="F18">
+        <v>321653</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19">
+        <v>2021</v>
+      </c>
+      <c r="E19" s="1">
+        <v>44702</v>
+      </c>
+      <c r="F19">
+        <v>87632</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20">
+        <v>2021</v>
+      </c>
+      <c r="E20" s="1">
+        <v>44703</v>
+      </c>
+      <c r="F20">
+        <v>5321</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21">
+        <v>2021</v>
+      </c>
+      <c r="E21" s="1">
+        <v>44704</v>
+      </c>
+      <c r="F21">
+        <v>6161</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22">
+        <v>2021</v>
+      </c>
+      <c r="E22" s="1">
+        <v>44705</v>
+      </c>
+      <c r="F22">
+        <v>5416</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23">
+        <v>2021</v>
+      </c>
+      <c r="E23" s="1">
+        <v>44706</v>
+      </c>
+      <c r="F23">
+        <v>71423</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24">
+        <v>2021</v>
+      </c>
+      <c r="E24" s="1">
+        <v>44707</v>
+      </c>
+      <c r="F24">
+        <v>6412</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25">
+        <v>2021</v>
+      </c>
+      <c r="E25" s="1">
+        <v>44708</v>
+      </c>
+      <c r="F25">
+        <v>3415</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26">
+        <v>2021</v>
+      </c>
+      <c r="E26" s="1">
+        <v>44709</v>
+      </c>
+      <c r="F26">
+        <v>6728</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27">
+        <v>2021</v>
+      </c>
+      <c r="E27" s="1">
+        <v>44710</v>
+      </c>
+      <c r="F27">
+        <v>14312</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28">
+        <v>2021</v>
+      </c>
+      <c r="E28" s="1">
+        <v>44711</v>
+      </c>
+      <c r="F28">
+        <v>5216</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29">
+        <v>2019</v>
+      </c>
+      <c r="E29" s="1">
+        <v>44697</v>
+      </c>
+      <c r="F29">
+        <v>164316</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30">
+        <v>2019</v>
+      </c>
+      <c r="E30" s="1">
+        <v>44699</v>
+      </c>
+      <c r="F30">
+        <v>624154</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31">
+        <v>2019</v>
+      </c>
+      <c r="E31" s="1">
+        <v>44700</v>
+      </c>
+      <c r="F31">
+        <v>754212</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32">
+        <v>2019</v>
+      </c>
+      <c r="E32" s="1">
+        <v>44701</v>
+      </c>
+      <c r="F32">
+        <v>32112</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33">
+        <v>2019</v>
+      </c>
+      <c r="E33" s="1">
+        <v>44702</v>
+      </c>
+      <c r="F33">
+        <v>43762</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34">
+        <v>2019</v>
+      </c>
+      <c r="E34" s="1">
+        <v>44703</v>
+      </c>
+      <c r="F34">
+        <v>12345</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35">
+        <v>2019</v>
+      </c>
+      <c r="E35" s="1">
+        <v>44704</v>
+      </c>
+      <c r="F35">
+        <v>17314</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36">
+        <v>2019</v>
+      </c>
+      <c r="E36" s="1">
+        <v>44705</v>
+      </c>
+      <c r="F36">
+        <v>32897</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37">
+        <v>2019</v>
+      </c>
+      <c r="E37" s="1">
+        <v>44706</v>
+      </c>
+      <c r="F37">
+        <v>347221</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38">
+        <v>2019</v>
+      </c>
+      <c r="E38" s="1">
+        <v>44707</v>
+      </c>
+      <c r="F38">
+        <v>643643</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39">
+        <v>2019</v>
+      </c>
+      <c r="E39" s="1">
+        <v>44708</v>
+      </c>
+      <c r="F39">
+        <v>734274</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>18</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B40" t="s">
         <v>19</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C40" t="s">
         <v>20</v>
       </c>
-      <c r="D11">
-        <v>2019</v>
-      </c>
-      <c r="E11" s="1">
+      <c r="D40">
+        <v>1989</v>
+      </c>
+      <c r="E40" s="1">
+        <v>44704</v>
+      </c>
+      <c r="F40">
+        <v>53216</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>18</v>
+      </c>
+      <c r="B41" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41">
+        <v>1989</v>
+      </c>
+      <c r="E41" s="1">
+        <v>44705</v>
+      </c>
+      <c r="F41">
+        <v>643164</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>18</v>
+      </c>
+      <c r="B42" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42" t="s">
+        <v>20</v>
+      </c>
+      <c r="D42">
+        <v>1989</v>
+      </c>
+      <c r="E42" s="1">
+        <v>44706</v>
+      </c>
+      <c r="F42">
+        <v>54326</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>18</v>
+      </c>
+      <c r="B43" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43">
+        <v>1989</v>
+      </c>
+      <c r="E43" s="1">
         <v>44707</v>
       </c>
-      <c r="F11">
-        <v>73427431</v>
+      <c r="F43">
+        <v>15216</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>18</v>
+      </c>
+      <c r="B44" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44">
+        <v>1989</v>
+      </c>
+      <c r="E44" s="1">
+        <v>44708</v>
+      </c>
+      <c r="F44">
+        <v>64321</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>18</v>
+      </c>
+      <c r="B45" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45">
+        <v>1989</v>
+      </c>
+      <c r="E45" s="1">
+        <v>44709</v>
+      </c>
+      <c r="F45">
+        <v>73428</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>18</v>
+      </c>
+      <c r="B46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46">
+        <v>1989</v>
+      </c>
+      <c r="E46" s="1">
+        <v>44710</v>
+      </c>
+      <c r="F46">
+        <v>81236</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>18</v>
+      </c>
+      <c r="B47" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" t="s">
+        <v>20</v>
+      </c>
+      <c r="D47">
+        <v>1989</v>
+      </c>
+      <c r="E47" s="1">
+        <v>44711</v>
+      </c>
+      <c r="F47">
+        <v>34316</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D8">
-    <sortCondition descending="1" ref="A1:A8"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D13">
+    <sortCondition descending="1" ref="A1:A13"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
